--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>1.470272979760444</v>
+        <v>38.35780822432134</v>
       </c>
       <c r="R2">
-        <v>13.232456817844</v>
+        <v>345.220274018892</v>
       </c>
       <c r="S2">
-        <v>6.165448778306274E-06</v>
+        <v>0.0001118600856870953</v>
       </c>
       <c r="T2">
-        <v>6.165448778306273E-06</v>
+        <v>0.0001118600856870953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.6747349807391111</v>
+        <v>1.541868721349778</v>
       </c>
       <c r="R3">
-        <v>6.072614826652</v>
+        <v>13.876818492148</v>
       </c>
       <c r="S3">
-        <v>2.829436451560354E-06</v>
+        <v>4.496439584863424E-06</v>
       </c>
       <c r="T3">
-        <v>2.829436451560354E-06</v>
+        <v>4.496439584863424E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>925.8821976528741</v>
+        <v>1962.62946738732</v>
       </c>
       <c r="R4">
-        <v>8332.939778875867</v>
+        <v>17663.66520648588</v>
       </c>
       <c r="S4">
-        <v>0.003882598226966356</v>
+        <v>0.005723473539209192</v>
       </c>
       <c r="T4">
-        <v>0.003882598226966354</v>
+        <v>0.005723473539209192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>24.72762345638078</v>
+        <v>27.920969332023</v>
       </c>
       <c r="R5">
-        <v>222.548611107427</v>
+        <v>251.288723988207</v>
       </c>
       <c r="S5">
-        <v>0.0001036929182051626</v>
+        <v>8.142389168019552E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001036929182051626</v>
+        <v>8.142389168019552E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>962.9161096399508</v>
+        <v>2710.398531288009</v>
       </c>
       <c r="R6">
-        <v>8666.244986759557</v>
+        <v>24393.58678159208</v>
       </c>
       <c r="S6">
-        <v>0.004037896386260439</v>
+        <v>0.007904138061877447</v>
       </c>
       <c r="T6">
-        <v>0.004037896386260438</v>
+        <v>0.007904138061877447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>1248.893317591157</v>
+        <v>809.5342876879043</v>
       </c>
       <c r="R7">
-        <v>11240.03985832042</v>
+        <v>7285.808589191139</v>
       </c>
       <c r="S7">
-        <v>0.005237114389759004</v>
+        <v>0.002360785951528721</v>
       </c>
       <c r="T7">
-        <v>0.005237114389759002</v>
+        <v>0.002360785951528721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>9.244576937142222</v>
+        <v>105.5428157731067</v>
       </c>
       <c r="R8">
-        <v>83.20119243428</v>
+        <v>949.88534195796</v>
       </c>
       <c r="S8">
-        <v>3.876624706273834E-05</v>
+        <v>0.0003077868356553085</v>
       </c>
       <c r="T8">
-        <v>3.876624706273833E-05</v>
+        <v>0.0003077868356553085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>4.242504301915556</v>
@@ -1013,10 +1013,10 @@
         <v>38.18253871724</v>
       </c>
       <c r="S9">
-        <v>1.779053504027952E-05</v>
+        <v>1.237210666378061E-05</v>
       </c>
       <c r="T9">
-        <v>1.779053504027952E-05</v>
+        <v>1.237210666378061E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>5821.632668735381</v>
+        <v>5400.241825495892</v>
       </c>
       <c r="R10">
-        <v>52394.69401861843</v>
+        <v>48602.17642946303</v>
       </c>
       <c r="S10">
-        <v>0.02441245844771669</v>
+        <v>0.01574833238120175</v>
       </c>
       <c r="T10">
-        <v>0.02441245844771668</v>
+        <v>0.01574833238120175</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>155.4788945059989</v>
+        <v>76.82549808848999</v>
       </c>
       <c r="R11">
-        <v>1399.31005055399</v>
+        <v>691.4294827964098</v>
       </c>
       <c r="S11">
-        <v>0.0006519858375827649</v>
+        <v>0.0002240406112068547</v>
       </c>
       <c r="T11">
-        <v>0.0006519858375827649</v>
+        <v>0.0002240406112068547</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>6054.489324173384</v>
+        <v>7457.753873383379</v>
       </c>
       <c r="R12">
-        <v>54490.40391756046</v>
+        <v>67119.7848604504</v>
       </c>
       <c r="S12">
-        <v>0.02538892050718039</v>
+        <v>0.02174850508744603</v>
       </c>
       <c r="T12">
-        <v>0.02538892050718039</v>
+        <v>0.02174850508744603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>7852.616840333549</v>
+        <v>2227.461164824397</v>
       </c>
       <c r="R13">
-        <v>70673.55156300192</v>
+        <v>20047.15048341957</v>
       </c>
       <c r="S13">
-        <v>0.03292919585084813</v>
+        <v>0.006495782952581427</v>
       </c>
       <c r="T13">
-        <v>0.03292919585084813</v>
+        <v>0.006495782952581427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>38.92190281531821</v>
+        <v>1136.213526661339</v>
       </c>
       <c r="R14">
-        <v>350.2971253378639</v>
+        <v>10225.92173995205</v>
       </c>
       <c r="S14">
-        <v>0.0001632152678213255</v>
+        <v>0.00331345685102483</v>
       </c>
       <c r="T14">
-        <v>0.0001632152678213255</v>
+        <v>0.003313456851024831</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>17.86196829292355</v>
+        <v>45.67237229219022</v>
       </c>
       <c r="R15">
-        <v>160.757714636312</v>
+        <v>411.051350629712</v>
       </c>
       <c r="S15">
-        <v>7.490245152141356E-05</v>
+        <v>0.0001331910167614304</v>
       </c>
       <c r="T15">
-        <v>7.490245152141353E-05</v>
+        <v>0.0001331910167614304</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>24510.48030641905</v>
+        <v>58135.91161487868</v>
       </c>
       <c r="R16">
-        <v>220594.3227577714</v>
+        <v>523223.2045339081</v>
       </c>
       <c r="S16">
-        <v>0.1027823492243824</v>
+        <v>0.1695375297959373</v>
       </c>
       <c r="T16">
-        <v>0.1027823492243824</v>
+        <v>0.1695375297959374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>654.6037166376068</v>
+        <v>827.0593264092117</v>
       </c>
       <c r="R17">
-        <v>5891.433449738462</v>
+        <v>7443.533937682906</v>
       </c>
       <c r="S17">
-        <v>0.002745017925634234</v>
+        <v>0.002411892947047618</v>
       </c>
       <c r="T17">
-        <v>0.002745017925634234</v>
+        <v>0.002411892947047619</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>25490.86309456421</v>
+        <v>80285.90830536038</v>
       </c>
       <c r="R18">
-        <v>229417.7678510779</v>
+        <v>722573.1747482435</v>
       </c>
       <c r="S18">
-        <v>0.1068934904523379</v>
+        <v>0.2341319537858654</v>
       </c>
       <c r="T18">
-        <v>0.1068934904523378</v>
+        <v>0.2341319537858654</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>33061.41444693042</v>
+        <v>23979.57158000319</v>
       </c>
       <c r="R19">
-        <v>297552.7300223737</v>
+        <v>215816.1442200287</v>
       </c>
       <c r="S19">
-        <v>0.1386398717224039</v>
+        <v>0.06992988014310485</v>
       </c>
       <c r="T19">
-        <v>0.1386398717224038</v>
+        <v>0.06992988014310486</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>3.59558179473111</v>
+        <v>52.869258144136</v>
       </c>
       <c r="R20">
-        <v>32.36023615258</v>
+        <v>475.823323297224</v>
       </c>
       <c r="S20">
-        <v>1.507772753005171E-05</v>
+        <v>0.0001541787714154737</v>
       </c>
       <c r="T20">
-        <v>1.50777275300517E-05</v>
+        <v>0.0001541787714154737</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>1.650077806237778</v>
+        <v>2.125185437517333</v>
       </c>
       <c r="R21">
-        <v>14.85070025614</v>
+        <v>19.126668937656</v>
       </c>
       <c r="S21">
-        <v>6.919443079363803E-06</v>
+        <v>6.19752368934688E-06</v>
       </c>
       <c r="T21">
-        <v>6.919443079363803E-06</v>
+        <v>6.19752368934688E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>2264.26331693093</v>
+        <v>2705.127554363131</v>
       </c>
       <c r="R22">
-        <v>20378.36985237837</v>
+        <v>24346.14798926818</v>
       </c>
       <c r="S22">
-        <v>0.009494971133462638</v>
+        <v>0.007888766695322208</v>
       </c>
       <c r="T22">
-        <v>0.009494971133462636</v>
+        <v>0.007888766695322208</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>60.47189464177944</v>
+        <v>38.48397506490599</v>
       </c>
       <c r="R23">
-        <v>544.247051776015</v>
+        <v>346.3557755841539</v>
       </c>
       <c r="S23">
-        <v>0.0002535830924416308</v>
+        <v>0.0001122280168659608</v>
       </c>
       <c r="T23">
-        <v>0.0002535830924416308</v>
+        <v>0.0001122280168659608</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>2354.830484770812</v>
+        <v>3735.791127223307</v>
       </c>
       <c r="R24">
-        <v>21193.47436293731</v>
+        <v>33622.12014500976</v>
       </c>
       <c r="S24">
-        <v>0.009874755868678297</v>
+        <v>0.01089441589457978</v>
       </c>
       <c r="T24">
-        <v>0.009874755868678295</v>
+        <v>0.01089441589457978</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>3054.193430817013</v>
+        <v>1115.795693591362</v>
       </c>
       <c r="R25">
-        <v>27487.74087735312</v>
+        <v>10042.16124232226</v>
       </c>
       <c r="S25">
-        <v>0.01280746733154948</v>
+        <v>0.00325391380979068</v>
       </c>
       <c r="T25">
-        <v>0.01280746733154948</v>
+        <v>0.00325391380979068</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>38.95605054549066</v>
+        <v>473.251950612372</v>
       </c>
       <c r="R26">
-        <v>350.6044549094159</v>
+        <v>4259.267555511348</v>
       </c>
       <c r="S26">
-        <v>0.0001633584630538924</v>
+        <v>0.001380110235639554</v>
       </c>
       <c r="T26">
-        <v>0.0001633584630538924</v>
+        <v>0.001380110235639554</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>17.87763930665866</v>
+        <v>19.023307476268</v>
       </c>
       <c r="R27">
-        <v>160.898753759928</v>
+        <v>171.209767286412</v>
       </c>
       <c r="S27">
-        <v>7.496816641505439E-05</v>
+        <v>5.547628769357166E-05</v>
       </c>
       <c r="T27">
-        <v>7.496816641505439E-05</v>
+        <v>5.547628769357166E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>24531.98432362684</v>
+        <v>24214.58020590027</v>
       </c>
       <c r="R28">
-        <v>220787.8589126415</v>
+        <v>217931.2218531024</v>
       </c>
       <c r="S28">
-        <v>0.1028725242588471</v>
+        <v>0.07061521870250111</v>
       </c>
       <c r="T28">
-        <v>0.1028725242588471</v>
+        <v>0.07061521870250111</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>655.1780264598086</v>
+        <v>344.4840519065369</v>
       </c>
       <c r="R29">
-        <v>5896.602238138278</v>
+        <v>3100.356467158832</v>
       </c>
       <c r="S29">
-        <v>0.002747426238811723</v>
+        <v>0.001004593780195969</v>
       </c>
       <c r="T29">
-        <v>0.002747426238811723</v>
+        <v>0.001004593780195969</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>25513.227240504</v>
+        <v>33440.42455104728</v>
       </c>
       <c r="R30">
-        <v>229619.045164536</v>
+        <v>300963.8209594255</v>
       </c>
       <c r="S30">
-        <v>0.1069872723541754</v>
+        <v>0.09751987740845897</v>
       </c>
       <c r="T30">
-        <v>0.1069872723541754</v>
+        <v>0.09751987740845895</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>33090.42053805114</v>
+        <v>9987.892908150548</v>
       </c>
       <c r="R31">
-        <v>297813.7848424602</v>
+        <v>89891.03617335494</v>
       </c>
       <c r="S31">
-        <v>0.1387615059845617</v>
+        <v>0.02912696549306082</v>
       </c>
       <c r="T31">
-        <v>0.1387615059845617</v>
+        <v>0.02912696549306082</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N32">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q32">
-        <v>18.60589490545911</v>
+        <v>563.552511225952</v>
       </c>
       <c r="R32">
-        <v>167.453054149132</v>
+        <v>5071.972601033568</v>
       </c>
       <c r="S32">
-        <v>7.802203644716943E-05</v>
+        <v>0.00164344719141022</v>
       </c>
       <c r="T32">
-        <v>7.802203644716941E-05</v>
+        <v>0.00164344719141022</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.133268</v>
       </c>
       <c r="O33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q33">
-        <v>8.538583183861777</v>
+        <v>22.65311888562134</v>
       </c>
       <c r="R33">
-        <v>76.84724865475599</v>
+        <v>203.878069970592</v>
       </c>
       <c r="S33">
-        <v>3.580572994545854E-05</v>
+        <v>6.606164264669461E-05</v>
       </c>
       <c r="T33">
-        <v>3.580572994545852E-05</v>
+        <v>6.606164264669462E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N34">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O34">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P34">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q34">
-        <v>11716.78123825122</v>
+        <v>28834.93129961667</v>
       </c>
       <c r="R34">
-        <v>105451.031144261</v>
+        <v>259514.38169655</v>
       </c>
       <c r="S34">
-        <v>0.0491331987770244</v>
+        <v>0.08408921247777305</v>
       </c>
       <c r="T34">
-        <v>0.04913319877702438</v>
+        <v>0.08408921247777307</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N35">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q35">
-        <v>312.9211851299534</v>
+        <v>410.214585017592</v>
       </c>
       <c r="R35">
-        <v>2816.290666169581</v>
+        <v>3691.931265158328</v>
       </c>
       <c r="S35">
-        <v>0.001312204988545711</v>
+        <v>0.001196278952170916</v>
       </c>
       <c r="T35">
-        <v>0.001312204988545711</v>
+        <v>0.001196278952170917</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N36">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q36">
-        <v>12185.43507590921</v>
+        <v>39821.14644814315</v>
       </c>
       <c r="R36">
-        <v>109668.9156831829</v>
+        <v>358390.3180332883</v>
       </c>
       <c r="S36">
-        <v>0.05109845371308923</v>
+        <v>0.1161275124949211</v>
       </c>
       <c r="T36">
-        <v>0.05109845371308921</v>
+        <v>0.1161275124949211</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N37">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O37">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P37">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q37">
-        <v>15804.39696240441</v>
+        <v>11893.66916070978</v>
       </c>
       <c r="R37">
-        <v>142239.5726616396</v>
+        <v>107043.0224463881</v>
       </c>
       <c r="S37">
-        <v>0.06627422341638897</v>
+        <v>0.03468464213780032</v>
       </c>
       <c r="T37">
-        <v>0.06627422341638896</v>
+        <v>0.03468464213780033</v>
       </c>
     </row>
   </sheetData>
